--- a/Figs/MethodsComparison.xlsx
+++ b/Figs/MethodsComparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael Belias\Documents\Continuous-Covariate-JCE\Figs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258B3FC6-06CD-4138-968D-F05CBDCFF409}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF68B5B-BA9F-4D02-92E9-A2047F3C4EBD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Statistical methods</t>
   </si>
@@ -146,6 +146,18 @@
     <t>((m+1)l-1)[FE]  
 ((m+1)l-1) + 2*Coefs [RE]   
 (((m+1)l-1) x  j) [FEs]</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy </t>
+  </si>
+  <si>
+    <t>Moderate</t>
+  </si>
+  <si>
+    <t>Difficult</t>
   </si>
 </sst>
 </file>
@@ -207,8 +219,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,10 +227,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,53 +555,56 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
+      <c r="F1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -593,63 +612,75 @@
       <c r="A6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>34</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>37</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -657,104 +688,119 @@
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
+      <c r="F16" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>36</v>
       </c>
     </row>
